--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H2">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I2">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J2">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>0.30231128509</v>
+        <v>1.610248899116667</v>
       </c>
       <c r="R2">
-        <v>2.72080156581</v>
+        <v>14.49224009205</v>
       </c>
       <c r="S2">
-        <v>0.01534843988111764</v>
+        <v>0.07559485567612111</v>
       </c>
       <c r="T2">
-        <v>0.01534843988111763</v>
+        <v>0.07559485567612111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H3">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I3">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J3">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>2.200514895288</v>
+        <v>8.788771988664001</v>
       </c>
       <c r="R3">
-        <v>19.804634057592</v>
+        <v>79.098947897976</v>
       </c>
       <c r="S3">
-        <v>0.1117208395570707</v>
+        <v>0.4125982948461278</v>
       </c>
       <c r="T3">
-        <v>0.1117208395570706</v>
+        <v>0.4125982948461277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H4">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I4">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J4">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.025640671872</v>
+        <v>0.1918282053793333</v>
       </c>
       <c r="R4">
-        <v>0.230766046848</v>
+        <v>1.726453848414</v>
       </c>
       <c r="S4">
-        <v>0.001301785047890936</v>
+        <v>0.009005580136223009</v>
       </c>
       <c r="T4">
-        <v>0.001301785047890936</v>
+        <v>0.009005580136223009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H5">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I5">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J5">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>0.477604747198</v>
+        <v>2.257504750324667</v>
       </c>
       <c r="R5">
-        <v>4.298442724782</v>
+        <v>20.317542752922</v>
       </c>
       <c r="S5">
-        <v>0.02424814458091618</v>
+        <v>0.105980973427504</v>
       </c>
       <c r="T5">
-        <v>0.02424814458091618</v>
+        <v>0.105980973427504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H6">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I6">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J6">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.018111067028</v>
+        <v>0.094330129076</v>
       </c>
       <c r="R6">
-        <v>0.162999603252</v>
+        <v>0.8489711616840001</v>
       </c>
       <c r="S6">
-        <v>0.0009195046204755287</v>
+        <v>0.004428428733795051</v>
       </c>
       <c r="T6">
-        <v>0.0009195046204755285</v>
+        <v>0.004428428733795051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H7">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I7">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J7">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N7">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O7">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P7">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q7">
-        <v>1.666646757018889</v>
+        <v>0.40317085165</v>
       </c>
       <c r="R7">
-        <v>14.99982081317</v>
+        <v>3.62853766485</v>
       </c>
       <c r="S7">
-        <v>0.08461618475654534</v>
+        <v>0.01892728655800956</v>
       </c>
       <c r="T7">
-        <v>0.08461618475654532</v>
+        <v>0.01892728655800956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H8">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I8">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J8">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
         <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P8">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q8">
-        <v>12.131472409016</v>
+        <v>2.200514895288</v>
       </c>
       <c r="R8">
-        <v>109.183251681144</v>
+        <v>19.804634057592</v>
       </c>
       <c r="S8">
-        <v>0.6159187040728127</v>
+        <v>0.1033055237694647</v>
       </c>
       <c r="T8">
-        <v>0.6159187040728125</v>
+        <v>0.1033055237694647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H9">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I9">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J9">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N9">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O9">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P9">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q9">
-        <v>0.1413574177706667</v>
+        <v>0.048029556782</v>
       </c>
       <c r="R9">
-        <v>1.272216759936</v>
+        <v>0.432266011038</v>
       </c>
       <c r="S9">
-        <v>0.007176760959344269</v>
+        <v>0.002254798879300643</v>
       </c>
       <c r="T9">
-        <v>0.007176760959344268</v>
+        <v>0.002254798879300642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H10">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I10">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J10">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N10">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q10">
-        <v>2.633042305441555</v>
+        <v>0.565229458186</v>
       </c>
       <c r="R10">
-        <v>23.697380748974</v>
+        <v>5.087065123674</v>
       </c>
       <c r="S10">
-        <v>0.1336803934311545</v>
+        <v>0.02653530105743424</v>
       </c>
       <c r="T10">
-        <v>0.1336803934311544</v>
+        <v>0.02653530105743424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1625126666666667</v>
+        <v>0.029478</v>
       </c>
       <c r="H11">
-        <v>0.487538</v>
+        <v>0.088434</v>
       </c>
       <c r="I11">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="J11">
-        <v>0.846461286312529</v>
+        <v>0.1521316912638762</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,338 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N11">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O11">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P11">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q11">
-        <v>0.09984659064044443</v>
+        <v>0.023618186292</v>
       </c>
       <c r="R11">
-        <v>0.8986193157639999</v>
+        <v>0.212563676628</v>
       </c>
       <c r="S11">
-        <v>0.005069243092672483</v>
+        <v>0.001108780999667135</v>
       </c>
       <c r="T11">
-        <v>0.005069243092672482</v>
+        <v>0.001108780999667135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.139663</v>
+      </c>
+      <c r="I12">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J12">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.67700833333333</v>
+      </c>
+      <c r="N12">
+        <v>41.031025</v>
+      </c>
+      <c r="O12">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="P12">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="Q12">
+        <v>0.6367240049527778</v>
+      </c>
+      <c r="R12">
+        <v>5.730516044575</v>
+      </c>
+      <c r="S12">
+        <v>0.0298916889720163</v>
+      </c>
+      <c r="T12">
+        <v>0.0298916889720163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.139663</v>
+      </c>
+      <c r="I13">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J13">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N13">
+        <v>223.948188</v>
+      </c>
+      <c r="O13">
+        <v>0.679053278848249</v>
+      </c>
+      <c r="P13">
+        <v>0.6790532788482488</v>
+      </c>
+      <c r="Q13">
+        <v>3.475252864516001</v>
+      </c>
+      <c r="R13">
+        <v>31.277275780644</v>
+      </c>
+      <c r="S13">
+        <v>0.1631494602326565</v>
+      </c>
+      <c r="T13">
+        <v>0.1631494602326565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.139663</v>
+      </c>
+      <c r="I14">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J14">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.629335666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.888007</v>
+      </c>
+      <c r="O14">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="P14">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="Q14">
+        <v>0.07585263573788889</v>
+      </c>
+      <c r="R14">
+        <v>0.682673721641</v>
+      </c>
+      <c r="S14">
+        <v>0.00356098305945412</v>
+      </c>
+      <c r="T14">
+        <v>0.00356098305945412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.139663</v>
+      </c>
+      <c r="I15">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J15">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>19.17462033333333</v>
+      </c>
+      <c r="N15">
+        <v>57.523861</v>
+      </c>
+      <c r="O15">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="P15">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="Q15">
+        <v>0.8926616665381112</v>
+      </c>
+      <c r="R15">
+        <v>8.033954998843001</v>
+      </c>
+      <c r="S15">
+        <v>0.04190695605292577</v>
+      </c>
+      <c r="T15">
+        <v>0.04190695605292578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.139663</v>
+      </c>
+      <c r="I16">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J16">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.801214</v>
+      </c>
+      <c r="N16">
+        <v>2.403642</v>
+      </c>
+      <c r="O16">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="P16">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="Q16">
+        <v>0.03729998362733333</v>
+      </c>
+      <c r="R16">
+        <v>0.3356998526460001</v>
+      </c>
+      <c r="S16">
+        <v>0.001751087599300169</v>
+      </c>
+      <c r="T16">
+        <v>0.001751087599300169</v>
       </c>
     </row>
   </sheetData>
